--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>Secondary Education</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Health, General</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>Basic Health</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Basic Health</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>Non-communicable diseases (NCDs)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Non-communicable diseases (NCDs)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>151</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>Conflict, Peace &amp; Security</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflict, Peace &amp; Security</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>Energy generation, renewable sources</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Energy generation, renewable sources</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>Energy generation, non-renewable sources</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Energy generation, non-renewable sources</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>Hybrid energy plants</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Hybrid energy plants</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>Nuclear energy plants</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Nuclear energy plants</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>Energy distribution</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Energy distribution</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>311</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>Forestry</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Forestry</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>Fishing</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Fishing</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>321</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>Mineral Resources &amp; Mining</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Mineral Resources &amp; Mining</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2196,10 +2196,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -2219,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2242,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -2265,10 +2265,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -2288,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -2311,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -2334,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -2357,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -2380,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -2403,10 +2403,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2426,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2541,10 +2541,10 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -2564,10 +2564,10 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -2587,10 +2587,10 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -2610,10 +2610,10 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>63</v>
@@ -2633,10 +2633,10 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>63</v>
@@ -2656,10 +2656,10 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -2679,10 +2679,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>63</v>
@@ -2702,10 +2702,10 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>63</v>
@@ -2725,10 +2725,10 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>63</v>
@@ -2748,10 +2748,10 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>83</v>
@@ -2771,10 +2771,10 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>83</v>
@@ -2794,10 +2794,10 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>83</v>
@@ -2817,10 +2817,10 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>83</v>
@@ -2840,10 +2840,10 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
@@ -2863,10 +2863,10 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>83</v>
@@ -3622,10 +3622,10 @@
         <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>169</v>
@@ -3645,10 +3645,10 @@
         <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G69" t="s">
         <v>169</v>
@@ -3668,10 +3668,10 @@
         <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>169</v>
@@ -3691,10 +3691,10 @@
         <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
         <v>169</v>
@@ -3714,10 +3714,10 @@
         <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>169</v>
@@ -3737,10 +3737,10 @@
         <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>169</v>
@@ -4358,10 +4358,10 @@
         <v>232</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>245</v>
@@ -4381,10 +4381,10 @@
         <v>232</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>245</v>
@@ -4404,10 +4404,10 @@
         <v>232</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F102" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>245</v>
@@ -4427,10 +4427,10 @@
         <v>232</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F103" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G103" t="s">
         <v>245</v>
@@ -4450,10 +4450,10 @@
         <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>245</v>
@@ -4473,10 +4473,10 @@
         <v>232</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F105" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>245</v>
@@ -4496,10 +4496,10 @@
         <v>232</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F106" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
         <v>245</v>
@@ -4519,10 +4519,10 @@
         <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G107" t="s">
         <v>245</v>
@@ -4542,10 +4542,10 @@
         <v>232</v>
       </c>
       <c r="E108" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>245</v>
@@ -4565,10 +4565,10 @@
         <v>232</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G109" t="s">
         <v>265</v>
@@ -4588,10 +4588,10 @@
         <v>232</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G110" t="s">
         <v>265</v>
@@ -4611,10 +4611,10 @@
         <v>232</v>
       </c>
       <c r="E111" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F111" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G111" t="s">
         <v>265</v>
@@ -4634,10 +4634,10 @@
         <v>232</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G112" t="s">
         <v>265</v>
@@ -4657,10 +4657,10 @@
         <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>265</v>
@@ -4680,10 +4680,10 @@
         <v>232</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G114" t="s">
         <v>265</v>
@@ -4703,10 +4703,10 @@
         <v>232</v>
       </c>
       <c r="E115" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="G115" t="s">
         <v>279</v>
@@ -4726,10 +4726,10 @@
         <v>232</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="F116" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="G116" t="s">
         <v>283</v>
@@ -4749,10 +4749,10 @@
         <v>232</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F117" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>287</v>
@@ -4772,10 +4772,10 @@
         <v>232</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F118" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G118" t="s">
         <v>287</v>
@@ -4795,10 +4795,10 @@
         <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G119" t="s">
         <v>287</v>
@@ -4818,10 +4818,10 @@
         <v>232</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F120" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G120" t="s">
         <v>287</v>
@@ -4841,10 +4841,10 @@
         <v>232</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>287</v>
@@ -4864,10 +4864,10 @@
         <v>232</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F122" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G122" t="s">
         <v>287</v>
@@ -4887,10 +4887,10 @@
         <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="F123" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="G123" t="s">
         <v>287</v>
@@ -5554,10 +5554,10 @@
         <v>326</v>
       </c>
       <c r="E152" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F152" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G152" t="s">
         <v>367</v>
@@ -5577,10 +5577,10 @@
         <v>326</v>
       </c>
       <c r="E153" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G153" t="s">
         <v>367</v>
@@ -5600,10 +5600,10 @@
         <v>326</v>
       </c>
       <c r="E154" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G154" t="s">
         <v>367</v>
@@ -5623,10 +5623,10 @@
         <v>326</v>
       </c>
       <c r="E155" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G155" t="s">
         <v>367</v>
@@ -5646,10 +5646,10 @@
         <v>326</v>
       </c>
       <c r="E156" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G156" t="s">
         <v>367</v>
@@ -5669,10 +5669,10 @@
         <v>326</v>
       </c>
       <c r="E157" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G157" t="s">
         <v>367</v>
@@ -5692,10 +5692,10 @@
         <v>326</v>
       </c>
       <c r="E158" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F158" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G158" t="s">
         <v>381</v>
@@ -5715,10 +5715,10 @@
         <v>326</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F159" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G159" t="s">
         <v>381</v>
@@ -5738,10 +5738,10 @@
         <v>326</v>
       </c>
       <c r="E160" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F160" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G160" t="s">
         <v>381</v>
@@ -5761,10 +5761,10 @@
         <v>326</v>
       </c>
       <c r="E161" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F161" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G161" t="s">
         <v>381</v>
@@ -5784,10 +5784,10 @@
         <v>326</v>
       </c>
       <c r="E162" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F162" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G162" t="s">
         <v>381</v>
@@ -6244,10 +6244,10 @@
         <v>392</v>
       </c>
       <c r="E182" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F182" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G182" t="s">
         <v>435</v>
@@ -6267,10 +6267,10 @@
         <v>392</v>
       </c>
       <c r="E183" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F183" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G183" t="s">
         <v>435</v>
@@ -6290,10 +6290,10 @@
         <v>392</v>
       </c>
       <c r="E184" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F184" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G184" t="s">
         <v>435</v>
@@ -6313,10 +6313,10 @@
         <v>392</v>
       </c>
       <c r="E185" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F185" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G185" t="s">
         <v>435</v>
@@ -6336,10 +6336,10 @@
         <v>392</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F186" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G186" t="s">
         <v>435</v>
@@ -6359,10 +6359,10 @@
         <v>392</v>
       </c>
       <c r="E187" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G187" t="s">
         <v>435</v>
@@ -6382,10 +6382,10 @@
         <v>392</v>
       </c>
       <c r="E188" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F188" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G188" t="s">
         <v>435</v>
@@ -6405,10 +6405,10 @@
         <v>392</v>
       </c>
       <c r="E189" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F189" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G189" t="s">
         <v>435</v>
@@ -6428,10 +6428,10 @@
         <v>392</v>
       </c>
       <c r="E190" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F190" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G190" t="s">
         <v>435</v>
@@ -6451,10 +6451,10 @@
         <v>392</v>
       </c>
       <c r="E191" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F191" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G191" t="s">
         <v>435</v>
@@ -6474,10 +6474,10 @@
         <v>392</v>
       </c>
       <c r="E192" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="F192" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="G192" t="s">
         <v>457</v>

--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>Health, General</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>Population Policies/Programmes &amp; Reproductive Health</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Population Policies/Programmes &amp; Reproductive Health</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>Water Supply &amp; Sanitation</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Water Supply &amp; Sanitation</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>Other Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Other Social Infrastructure &amp; Services</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>Transport &amp; Storage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transport &amp; Storage</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banking &amp; Financial Services</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>Business &amp; Other Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Business &amp; Other Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>Trade Policies &amp; Regulations</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Trade Policies &amp; Regulations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>Tourism</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>General Environment Protection</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>General Environment Protection</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>Other Multisector</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Other Multisector</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>General Budget Support</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>General Budget Support</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>Development Food Assistance</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Development Food Assistance</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>Other Commodity Assistance</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Other Commodity Assistance</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>Action Relating to Debt</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Action Relating to Debt</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>Emergency Response</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Emergency Response</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>Reconstruction Relief &amp; Rehabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction Relief &amp; Rehabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>Disaster Prevention &amp; Preparedness</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Disaster Prevention &amp; Preparedness</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>Administrative Costs of Donors</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Administrative Costs of Donors</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>Refugees in Donor Countries</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugees in Donor Countries</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>Unallocated / Unspecified</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Unallocated / Unspecified</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,16 +2193,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,16 +2216,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,16 +2262,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,16 +2285,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,16 +2331,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,16 +2354,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,16 +2377,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,16 +2400,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,16 +2423,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2538,16 +2538,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2561,16 +2561,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,16 +2584,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,16 +2607,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,16 +2630,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,16 +2653,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,16 +2676,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2699,16 +2699,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2722,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2745,16 +2745,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2768,16 +2768,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2791,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2814,16 +2814,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2837,16 +2837,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2860,16 +2860,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2889,10 +2889,10 @@
         <v>97</v>
       </c>
       <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
         <v>97</v>
-      </c>
-      <c r="G36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2912,10 +2912,10 @@
         <v>97</v>
       </c>
       <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
         <v>97</v>
-      </c>
-      <c r="G37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2935,10 +2935,10 @@
         <v>97</v>
       </c>
       <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
         <v>97</v>
-      </c>
-      <c r="G38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2958,10 +2958,10 @@
         <v>97</v>
       </c>
       <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
         <v>97</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2981,10 +2981,10 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
         <v>97</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3004,10 +3004,10 @@
         <v>109</v>
       </c>
       <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
         <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3027,10 +3027,10 @@
         <v>109</v>
       </c>
       <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
         <v>109</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3050,10 +3050,10 @@
         <v>109</v>
       </c>
       <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
         <v>109</v>
-      </c>
-      <c r="G43" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3073,10 +3073,10 @@
         <v>109</v>
       </c>
       <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
         <v>109</v>
-      </c>
-      <c r="G44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3096,10 +3096,10 @@
         <v>109</v>
       </c>
       <c r="F45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" t="s">
         <v>109</v>
-      </c>
-      <c r="G45" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3119,10 +3119,10 @@
         <v>109</v>
       </c>
       <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
         <v>109</v>
-      </c>
-      <c r="G46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3142,10 +3142,10 @@
         <v>109</v>
       </c>
       <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" t="s">
         <v>109</v>
-      </c>
-      <c r="G47" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3165,10 +3165,10 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
         <v>109</v>
-      </c>
-      <c r="G48" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3188,10 +3188,10 @@
         <v>109</v>
       </c>
       <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
         <v>109</v>
-      </c>
-      <c r="G49" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3211,10 +3211,10 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" t="s">
         <v>109</v>
-      </c>
-      <c r="G50" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3234,10 +3234,10 @@
         <v>109</v>
       </c>
       <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
         <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3619,16 +3619,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3642,16 +3642,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3665,16 +3665,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
         <v>134</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3688,16 +3688,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
         <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3711,16 +3711,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3734,16 +3734,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
         <v>134</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3763,10 +3763,10 @@
         <v>183</v>
       </c>
       <c r="F74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" t="s">
         <v>183</v>
-      </c>
-      <c r="G74" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3786,10 +3786,10 @@
         <v>183</v>
       </c>
       <c r="F75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" t="s">
         <v>183</v>
-      </c>
-      <c r="G75" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3809,10 +3809,10 @@
         <v>183</v>
       </c>
       <c r="F76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" t="s">
         <v>183</v>
-      </c>
-      <c r="G76" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3832,10 +3832,10 @@
         <v>183</v>
       </c>
       <c r="F77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" t="s">
         <v>183</v>
-      </c>
-      <c r="G77" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3855,10 +3855,10 @@
         <v>183</v>
       </c>
       <c r="F78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" t="s">
         <v>183</v>
-      </c>
-      <c r="G78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3878,10 +3878,10 @@
         <v>183</v>
       </c>
       <c r="F79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" t="s">
         <v>183</v>
-      </c>
-      <c r="G79" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3901,10 +3901,10 @@
         <v>183</v>
       </c>
       <c r="F80" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" t="s">
         <v>183</v>
-      </c>
-      <c r="G80" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3924,10 +3924,10 @@
         <v>183</v>
       </c>
       <c r="F81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" t="s">
         <v>183</v>
-      </c>
-      <c r="G81" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3947,10 +3947,10 @@
         <v>183</v>
       </c>
       <c r="F82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" t="s">
         <v>183</v>
-      </c>
-      <c r="G82" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3970,10 +3970,10 @@
         <v>183</v>
       </c>
       <c r="F83" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" t="s">
         <v>183</v>
-      </c>
-      <c r="G83" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3993,10 +3993,10 @@
         <v>183</v>
       </c>
       <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
         <v>183</v>
-      </c>
-      <c r="G84" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4016,10 +4016,10 @@
         <v>207</v>
       </c>
       <c r="F85" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" t="s">
         <v>207</v>
-      </c>
-      <c r="G85" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4039,10 +4039,10 @@
         <v>207</v>
       </c>
       <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" t="s">
         <v>207</v>
-      </c>
-      <c r="G86" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4062,10 +4062,10 @@
         <v>207</v>
       </c>
       <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" t="s">
         <v>207</v>
-      </c>
-      <c r="G87" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4085,10 +4085,10 @@
         <v>207</v>
       </c>
       <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" t="s">
         <v>207</v>
-      </c>
-      <c r="G88" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4108,10 +4108,10 @@
         <v>207</v>
       </c>
       <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" t="s">
         <v>207</v>
-      </c>
-      <c r="G89" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4131,10 +4131,10 @@
         <v>207</v>
       </c>
       <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
         <v>207</v>
-      </c>
-      <c r="G90" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4154,10 +4154,10 @@
         <v>207</v>
       </c>
       <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" t="s">
         <v>207</v>
-      </c>
-      <c r="G91" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4177,10 +4177,10 @@
         <v>223</v>
       </c>
       <c r="F92" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" t="s">
         <v>223</v>
-      </c>
-      <c r="G92" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4200,10 +4200,10 @@
         <v>223</v>
       </c>
       <c r="F93" t="s">
+        <v>222</v>
+      </c>
+      <c r="G93" t="s">
         <v>223</v>
-      </c>
-      <c r="G93" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4223,10 +4223,10 @@
         <v>223</v>
       </c>
       <c r="F94" t="s">
+        <v>222</v>
+      </c>
+      <c r="G94" t="s">
         <v>223</v>
-      </c>
-      <c r="G94" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4246,10 +4246,10 @@
         <v>223</v>
       </c>
       <c r="F95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" t="s">
         <v>223</v>
-      </c>
-      <c r="G95" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4355,16 +4355,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F100" t="s">
         <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4378,16 +4378,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F101" t="s">
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4401,16 +4401,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s">
         <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4424,16 +4424,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
         <v>234</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4447,16 +4447,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>234</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4470,16 +4470,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
         <v>234</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4493,16 +4493,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
         <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4516,16 +4516,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F107" t="s">
         <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4539,16 +4539,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F108" t="s">
         <v>234</v>
       </c>
       <c r="G108" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4562,16 +4562,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" t="s">
         <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4585,16 +4585,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F110" t="s">
         <v>234</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4608,16 +4608,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" t="s">
         <v>234</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4631,16 +4631,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F112" t="s">
         <v>234</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4654,16 +4654,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F113" t="s">
         <v>234</v>
       </c>
       <c r="G113" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4677,16 +4677,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
         <v>234</v>
       </c>
       <c r="G114" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4700,16 +4700,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F115" t="s">
         <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4723,16 +4723,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F116" t="s">
         <v>234</v>
       </c>
       <c r="G116" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4746,16 +4746,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F117" t="s">
         <v>234</v>
       </c>
       <c r="G117" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4769,16 +4769,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
       </c>
       <c r="G119" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4815,16 +4815,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F120" t="s">
         <v>234</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4838,16 +4838,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F121" t="s">
         <v>234</v>
       </c>
       <c r="G121" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4861,16 +4861,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
       </c>
       <c r="G122" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4884,16 +4884,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F123" t="s">
         <v>234</v>
       </c>
       <c r="G123" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4913,10 +4913,10 @@
         <v>303</v>
       </c>
       <c r="F124" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" t="s">
         <v>303</v>
-      </c>
-      <c r="G124" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4936,10 +4936,10 @@
         <v>303</v>
       </c>
       <c r="F125" t="s">
+        <v>302</v>
+      </c>
+      <c r="G125" t="s">
         <v>303</v>
-      </c>
-      <c r="G125" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4959,10 +4959,10 @@
         <v>303</v>
       </c>
       <c r="F126" t="s">
+        <v>302</v>
+      </c>
+      <c r="G126" t="s">
         <v>303</v>
-      </c>
-      <c r="G126" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4982,10 +4982,10 @@
         <v>303</v>
       </c>
       <c r="F127" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" t="s">
         <v>303</v>
-      </c>
-      <c r="G127" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5005,10 +5005,10 @@
         <v>303</v>
       </c>
       <c r="F128" t="s">
+        <v>302</v>
+      </c>
+      <c r="G128" t="s">
         <v>303</v>
-      </c>
-      <c r="G128" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5028,10 +5028,10 @@
         <v>303</v>
       </c>
       <c r="F129" t="s">
+        <v>302</v>
+      </c>
+      <c r="G129" t="s">
         <v>303</v>
-      </c>
-      <c r="G129" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5051,10 +5051,10 @@
         <v>317</v>
       </c>
       <c r="F130" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" t="s">
         <v>317</v>
-      </c>
-      <c r="G130" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5074,10 +5074,10 @@
         <v>317</v>
       </c>
       <c r="F131" t="s">
+        <v>316</v>
+      </c>
+      <c r="G131" t="s">
         <v>317</v>
-      </c>
-      <c r="G131" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5097,10 +5097,10 @@
         <v>317</v>
       </c>
       <c r="F132" t="s">
+        <v>316</v>
+      </c>
+      <c r="G132" t="s">
         <v>317</v>
-      </c>
-      <c r="G132" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5120,10 +5120,10 @@
         <v>317</v>
       </c>
       <c r="F133" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" t="s">
         <v>317</v>
-      </c>
-      <c r="G133" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5551,16 +5551,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F152" t="s">
         <v>328</v>
       </c>
       <c r="G152" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5574,16 +5574,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F153" t="s">
         <v>328</v>
       </c>
       <c r="G153" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5597,16 +5597,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F154" t="s">
         <v>328</v>
       </c>
       <c r="G154" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5620,16 +5620,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F155" t="s">
         <v>328</v>
       </c>
       <c r="G155" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5643,16 +5643,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F156" t="s">
         <v>328</v>
       </c>
       <c r="G156" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5666,16 +5666,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F157" t="s">
         <v>328</v>
       </c>
       <c r="G157" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5689,16 +5689,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F158" t="s">
         <v>328</v>
       </c>
       <c r="G158" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5712,16 +5712,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F159" t="s">
         <v>328</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5735,16 +5735,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F160" t="s">
         <v>328</v>
       </c>
       <c r="G160" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5758,16 +5758,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F161" t="s">
         <v>328</v>
       </c>
       <c r="G161" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5781,16 +5781,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E162" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F162" t="s">
         <v>328</v>
       </c>
       <c r="G162" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6241,16 +6241,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F182" t="s">
         <v>394</v>
       </c>
       <c r="G182" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6264,16 +6264,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E183" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F183" t="s">
         <v>394</v>
       </c>
       <c r="G183" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6287,16 +6287,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F184" t="s">
         <v>394</v>
       </c>
       <c r="G184" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6310,16 +6310,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F185" t="s">
         <v>394</v>
       </c>
       <c r="G185" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6333,16 +6333,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E186" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F186" t="s">
         <v>394</v>
       </c>
       <c r="G186" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6356,16 +6356,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F187" t="s">
         <v>394</v>
       </c>
       <c r="G187" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6379,16 +6379,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F188" t="s">
         <v>394</v>
       </c>
       <c r="G188" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6402,16 +6402,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F189" t="s">
         <v>394</v>
       </c>
       <c r="G189" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6425,16 +6425,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E190" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F190" t="s">
         <v>394</v>
       </c>
       <c r="G190" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6448,16 +6448,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F191" t="s">
         <v>394</v>
       </c>
       <c r="G191" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6471,16 +6471,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F192" t="s">
         <v>394</v>
       </c>
       <c r="G192" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6500,10 +6500,10 @@
         <v>461</v>
       </c>
       <c r="F193" t="s">
+        <v>460</v>
+      </c>
+      <c r="G193" t="s">
         <v>461</v>
-      </c>
-      <c r="G193" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6523,10 +6523,10 @@
         <v>461</v>
       </c>
       <c r="F194" t="s">
+        <v>460</v>
+      </c>
+      <c r="G194" t="s">
         <v>461</v>
-      </c>
-      <c r="G194" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6546,10 +6546,10 @@
         <v>461</v>
       </c>
       <c r="F195" t="s">
+        <v>460</v>
+      </c>
+      <c r="G195" t="s">
         <v>461</v>
-      </c>
-      <c r="G195" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6569,10 +6569,10 @@
         <v>461</v>
       </c>
       <c r="F196" t="s">
+        <v>460</v>
+      </c>
+      <c r="G196" t="s">
         <v>461</v>
-      </c>
-      <c r="G196" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6592,10 +6592,10 @@
         <v>461</v>
       </c>
       <c r="F197" t="s">
+        <v>460</v>
+      </c>
+      <c r="G197" t="s">
         <v>461</v>
-      </c>
-      <c r="G197" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6615,10 +6615,10 @@
         <v>461</v>
       </c>
       <c r="F198" t="s">
+        <v>460</v>
+      </c>
+      <c r="G198" t="s">
         <v>461</v>
-      </c>
-      <c r="G198" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6638,10 +6638,10 @@
         <v>475</v>
       </c>
       <c r="F199" t="s">
+        <v>474</v>
+      </c>
+      <c r="G199" t="s">
         <v>475</v>
-      </c>
-      <c r="G199" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6661,10 +6661,10 @@
         <v>479</v>
       </c>
       <c r="F200" t="s">
+        <v>478</v>
+      </c>
+      <c r="G200" t="s">
         <v>479</v>
-      </c>
-      <c r="G200" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6684,10 +6684,10 @@
         <v>479</v>
       </c>
       <c r="F201" t="s">
+        <v>478</v>
+      </c>
+      <c r="G201" t="s">
         <v>479</v>
-      </c>
-      <c r="G201" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6707,10 +6707,10 @@
         <v>479</v>
       </c>
       <c r="F202" t="s">
+        <v>478</v>
+      </c>
+      <c r="G202" t="s">
         <v>479</v>
-      </c>
-      <c r="G202" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6730,10 +6730,10 @@
         <v>479</v>
       </c>
       <c r="F203" t="s">
+        <v>478</v>
+      </c>
+      <c r="G203" t="s">
         <v>479</v>
-      </c>
-      <c r="G203" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6753,10 +6753,10 @@
         <v>479</v>
       </c>
       <c r="F204" t="s">
+        <v>478</v>
+      </c>
+      <c r="G204" t="s">
         <v>479</v>
-      </c>
-      <c r="G204" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6776,10 +6776,10 @@
         <v>479</v>
       </c>
       <c r="F205" t="s">
+        <v>478</v>
+      </c>
+      <c r="G205" t="s">
         <v>479</v>
-      </c>
-      <c r="G205" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6799,10 +6799,10 @@
         <v>493</v>
       </c>
       <c r="F206" t="s">
+        <v>492</v>
+      </c>
+      <c r="G206" t="s">
         <v>493</v>
-      </c>
-      <c r="G206" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6822,10 +6822,10 @@
         <v>493</v>
       </c>
       <c r="F207" t="s">
+        <v>492</v>
+      </c>
+      <c r="G207" t="s">
         <v>493</v>
-      </c>
-      <c r="G207" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6845,10 +6845,10 @@
         <v>493</v>
       </c>
       <c r="F208" t="s">
+        <v>492</v>
+      </c>
+      <c r="G208" t="s">
         <v>493</v>
-      </c>
-      <c r="G208" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6868,10 +6868,10 @@
         <v>493</v>
       </c>
       <c r="F209" t="s">
+        <v>492</v>
+      </c>
+      <c r="G209" t="s">
         <v>493</v>
-      </c>
-      <c r="G209" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6891,10 +6891,10 @@
         <v>493</v>
       </c>
       <c r="F210" t="s">
+        <v>492</v>
+      </c>
+      <c r="G210" t="s">
         <v>493</v>
-      </c>
-      <c r="G210" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6914,10 +6914,10 @@
         <v>493</v>
       </c>
       <c r="F211" t="s">
+        <v>492</v>
+      </c>
+      <c r="G211" t="s">
         <v>493</v>
-      </c>
-      <c r="G211" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6937,10 +6937,10 @@
         <v>493</v>
       </c>
       <c r="F212" t="s">
+        <v>492</v>
+      </c>
+      <c r="G212" t="s">
         <v>493</v>
-      </c>
-      <c r="G212" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6960,10 +6960,10 @@
         <v>493</v>
       </c>
       <c r="F213" t="s">
+        <v>492</v>
+      </c>
+      <c r="G213" t="s">
         <v>493</v>
-      </c>
-      <c r="G213" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6983,10 +6983,10 @@
         <v>493</v>
       </c>
       <c r="F214" t="s">
+        <v>492</v>
+      </c>
+      <c r="G214" t="s">
         <v>493</v>
-      </c>
-      <c r="G214" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7006,10 +7006,10 @@
         <v>493</v>
       </c>
       <c r="F215" t="s">
+        <v>492</v>
+      </c>
+      <c r="G215" t="s">
         <v>493</v>
-      </c>
-      <c r="G215" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7029,10 +7029,10 @@
         <v>515</v>
       </c>
       <c r="F216" t="s">
+        <v>514</v>
+      </c>
+      <c r="G216" t="s">
         <v>515</v>
-      </c>
-      <c r="G216" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7052,10 +7052,10 @@
         <v>519</v>
       </c>
       <c r="F217" t="s">
+        <v>518</v>
+      </c>
+      <c r="G217" t="s">
         <v>519</v>
-      </c>
-      <c r="G217" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7075,10 +7075,10 @@
         <v>523</v>
       </c>
       <c r="F218" t="s">
+        <v>522</v>
+      </c>
+      <c r="G218" t="s">
         <v>523</v>
-      </c>
-      <c r="G218" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7098,10 +7098,10 @@
         <v>523</v>
       </c>
       <c r="F219" t="s">
+        <v>522</v>
+      </c>
+      <c r="G219" t="s">
         <v>523</v>
-      </c>
-      <c r="G219" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7121,10 +7121,10 @@
         <v>529</v>
       </c>
       <c r="F220" t="s">
+        <v>528</v>
+      </c>
+      <c r="G220" t="s">
         <v>529</v>
-      </c>
-      <c r="G220" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7144,10 +7144,10 @@
         <v>529</v>
       </c>
       <c r="F221" t="s">
+        <v>528</v>
+      </c>
+      <c r="G221" t="s">
         <v>529</v>
-      </c>
-      <c r="G221" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7167,10 +7167,10 @@
         <v>529</v>
       </c>
       <c r="F222" t="s">
+        <v>528</v>
+      </c>
+      <c r="G222" t="s">
         <v>529</v>
-      </c>
-      <c r="G222" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7190,10 +7190,10 @@
         <v>529</v>
       </c>
       <c r="F223" t="s">
+        <v>528</v>
+      </c>
+      <c r="G223" t="s">
         <v>529</v>
-      </c>
-      <c r="G223" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7213,10 +7213,10 @@
         <v>529</v>
       </c>
       <c r="F224" t="s">
+        <v>528</v>
+      </c>
+      <c r="G224" t="s">
         <v>529</v>
-      </c>
-      <c r="G224" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7236,10 +7236,10 @@
         <v>529</v>
       </c>
       <c r="F225" t="s">
+        <v>528</v>
+      </c>
+      <c r="G225" t="s">
         <v>529</v>
-      </c>
-      <c r="G225" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7259,10 +7259,10 @@
         <v>529</v>
       </c>
       <c r="F226" t="s">
+        <v>528</v>
+      </c>
+      <c r="G226" t="s">
         <v>529</v>
-      </c>
-      <c r="G226" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7282,10 +7282,10 @@
         <v>545</v>
       </c>
       <c r="F227" t="s">
+        <v>544</v>
+      </c>
+      <c r="G227" t="s">
         <v>545</v>
-      </c>
-      <c r="G227" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7305,10 +7305,10 @@
         <v>545</v>
       </c>
       <c r="F228" t="s">
+        <v>544</v>
+      </c>
+      <c r="G228" t="s">
         <v>545</v>
-      </c>
-      <c r="G228" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7328,10 +7328,10 @@
         <v>545</v>
       </c>
       <c r="F229" t="s">
+        <v>544</v>
+      </c>
+      <c r="G229" t="s">
         <v>545</v>
-      </c>
-      <c r="G229" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7351,10 +7351,10 @@
         <v>553</v>
       </c>
       <c r="F230" t="s">
+        <v>552</v>
+      </c>
+      <c r="G230" t="s">
         <v>553</v>
-      </c>
-      <c r="G230" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7374,10 +7374,10 @@
         <v>557</v>
       </c>
       <c r="F231" t="s">
+        <v>556</v>
+      </c>
+      <c r="G231" t="s">
         <v>557</v>
-      </c>
-      <c r="G231" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7397,10 +7397,10 @@
         <v>561</v>
       </c>
       <c r="F232" t="s">
+        <v>560</v>
+      </c>
+      <c r="G232" t="s">
         <v>561</v>
-      </c>
-      <c r="G232" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7420,10 +7420,10 @@
         <v>565</v>
       </c>
       <c r="F233" t="s">
+        <v>564</v>
+      </c>
+      <c r="G233" t="s">
         <v>565</v>
-      </c>
-      <c r="G233" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7443,10 +7443,10 @@
         <v>569</v>
       </c>
       <c r="F234" t="s">
+        <v>568</v>
+      </c>
+      <c r="G234" t="s">
         <v>569</v>
-      </c>
-      <c r="G234" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7466,10 +7466,10 @@
         <v>569</v>
       </c>
       <c r="F235" t="s">
+        <v>568</v>
+      </c>
+      <c r="G235" t="s">
         <v>569</v>
-      </c>
-      <c r="G235" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -25,6 +25,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,6 +46,9 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t>Health</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,6 +712,9 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,6 +994,9 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
@@ -1003,9 +1006,6 @@
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,6 +1192,9 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -1201,9 +1204,6 @@
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,13 +2193,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2216,13 +2216,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2239,13 +2239,13 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2262,13 +2262,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2285,13 +2285,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2308,13 +2308,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2331,13 +2331,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2354,13 +2354,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2377,13 +2377,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2400,13 +2400,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2423,13 +2423,13 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2538,13 +2538,13 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -2561,13 +2561,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2584,13 +2584,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2607,13 +2607,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -2630,13 +2630,13 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -2653,13 +2653,13 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -2676,13 +2676,13 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -2699,13 +2699,13 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -2722,13 +2722,13 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -2745,13 +2745,13 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -2768,13 +2768,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -2791,13 +2791,13 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2814,13 +2814,13 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>53</v>
@@ -2837,13 +2837,13 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>82</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2860,13 +2860,13 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>83</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -3619,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
         <v>168</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>169</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>135</v>
@@ -3642,13 +3642,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
         <v>168</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="s">
         <v>135</v>
@@ -3665,13 +3665,13 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
         <v>168</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>169</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>135</v>
@@ -3688,13 +3688,13 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
         <v>168</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>169</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="s">
         <v>135</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>169</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>135</v>
@@ -3734,13 +3734,13 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
         <v>168</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>169</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>135</v>
@@ -4355,13 +4355,13 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
         <v>244</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>245</v>
-      </c>
-      <c r="F100" t="s">
-        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>235</v>
@@ -4378,13 +4378,13 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" t="s">
         <v>244</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>245</v>
-      </c>
-      <c r="F101" t="s">
-        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>235</v>
@@ -4401,13 +4401,13 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
         <v>244</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>245</v>
-      </c>
-      <c r="F102" t="s">
-        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>235</v>
@@ -4424,13 +4424,13 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" t="s">
         <v>244</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>245</v>
-      </c>
-      <c r="F103" t="s">
-        <v>234</v>
       </c>
       <c r="G103" t="s">
         <v>235</v>
@@ -4447,13 +4447,13 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
         <v>244</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>245</v>
-      </c>
-      <c r="F104" t="s">
-        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>235</v>
@@ -4470,13 +4470,13 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
         <v>244</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>235</v>
@@ -4493,13 +4493,13 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
         <v>244</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>245</v>
-      </c>
-      <c r="F106" t="s">
-        <v>234</v>
       </c>
       <c r="G106" t="s">
         <v>235</v>
@@ -4516,13 +4516,13 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" t="s">
         <v>244</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>245</v>
-      </c>
-      <c r="F107" t="s">
-        <v>234</v>
       </c>
       <c r="G107" t="s">
         <v>235</v>
@@ -4539,13 +4539,13 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
         <v>244</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>245</v>
-      </c>
-      <c r="F108" t="s">
-        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>235</v>
@@ -4562,13 +4562,13 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
         <v>264</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>265</v>
-      </c>
-      <c r="F109" t="s">
-        <v>234</v>
       </c>
       <c r="G109" t="s">
         <v>235</v>
@@ -4585,13 +4585,13 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
         <v>264</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>265</v>
-      </c>
-      <c r="F110" t="s">
-        <v>234</v>
       </c>
       <c r="G110" t="s">
         <v>235</v>
@@ -4608,13 +4608,13 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
         <v>264</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>265</v>
-      </c>
-      <c r="F111" t="s">
-        <v>234</v>
       </c>
       <c r="G111" t="s">
         <v>235</v>
@@ -4631,13 +4631,13 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
         <v>264</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>265</v>
-      </c>
-      <c r="F112" t="s">
-        <v>234</v>
       </c>
       <c r="G112" t="s">
         <v>235</v>
@@ -4654,13 +4654,13 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
         <v>264</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>265</v>
-      </c>
-      <c r="F113" t="s">
-        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>235</v>
@@ -4677,13 +4677,13 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
         <v>264</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>265</v>
-      </c>
-      <c r="F114" t="s">
-        <v>234</v>
       </c>
       <c r="G114" t="s">
         <v>235</v>
@@ -4700,13 +4700,13 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
         <v>278</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>279</v>
-      </c>
-      <c r="F115" t="s">
-        <v>234</v>
       </c>
       <c r="G115" t="s">
         <v>235</v>
@@ -4723,13 +4723,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
         <v>282</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>283</v>
-      </c>
-      <c r="F116" t="s">
-        <v>234</v>
       </c>
       <c r="G116" t="s">
         <v>235</v>
@@ -4746,13 +4746,13 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
         <v>286</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>287</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>235</v>
@@ -4769,13 +4769,13 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
         <v>286</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>287</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="s">
         <v>235</v>
@@ -4792,13 +4792,13 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
         <v>286</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>287</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="s">
         <v>235</v>
@@ -4815,13 +4815,13 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
         <v>286</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>287</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="s">
         <v>235</v>
@@ -4838,13 +4838,13 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" t="s">
         <v>286</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>287</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>235</v>
@@ -4861,13 +4861,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
         <v>286</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>287</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="s">
         <v>235</v>
@@ -4884,13 +4884,13 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
         <v>286</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>287</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="s">
         <v>235</v>
@@ -5551,13 +5551,13 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>326</v>
+      </c>
+      <c r="E152" t="s">
         <v>366</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>367</v>
-      </c>
-      <c r="F152" t="s">
-        <v>328</v>
       </c>
       <c r="G152" t="s">
         <v>329</v>
@@ -5574,13 +5574,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" t="s">
         <v>366</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>367</v>
-      </c>
-      <c r="F153" t="s">
-        <v>328</v>
       </c>
       <c r="G153" t="s">
         <v>329</v>
@@ -5597,13 +5597,13 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>326</v>
+      </c>
+      <c r="E154" t="s">
         <v>366</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>367</v>
-      </c>
-      <c r="F154" t="s">
-        <v>328</v>
       </c>
       <c r="G154" t="s">
         <v>329</v>
@@ -5620,13 +5620,13 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
         <v>366</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>367</v>
-      </c>
-      <c r="F155" t="s">
-        <v>328</v>
       </c>
       <c r="G155" t="s">
         <v>329</v>
@@ -5643,13 +5643,13 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>326</v>
+      </c>
+      <c r="E156" t="s">
         <v>366</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>367</v>
-      </c>
-      <c r="F156" t="s">
-        <v>328</v>
       </c>
       <c r="G156" t="s">
         <v>329</v>
@@ -5666,13 +5666,13 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>326</v>
+      </c>
+      <c r="E157" t="s">
         <v>366</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>367</v>
-      </c>
-      <c r="F157" t="s">
-        <v>328</v>
       </c>
       <c r="G157" t="s">
         <v>329</v>
@@ -5689,13 +5689,13 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" t="s">
         <v>380</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>381</v>
-      </c>
-      <c r="F158" t="s">
-        <v>328</v>
       </c>
       <c r="G158" t="s">
         <v>329</v>
@@ -5712,13 +5712,13 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>326</v>
+      </c>
+      <c r="E159" t="s">
         <v>380</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>381</v>
-      </c>
-      <c r="F159" t="s">
-        <v>328</v>
       </c>
       <c r="G159" t="s">
         <v>329</v>
@@ -5735,13 +5735,13 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
         <v>380</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>381</v>
-      </c>
-      <c r="F160" t="s">
-        <v>328</v>
       </c>
       <c r="G160" t="s">
         <v>329</v>
@@ -5758,13 +5758,13 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>326</v>
+      </c>
+      <c r="E161" t="s">
         <v>380</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>381</v>
-      </c>
-      <c r="F161" t="s">
-        <v>328</v>
       </c>
       <c r="G161" t="s">
         <v>329</v>
@@ -5781,13 +5781,13 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162" t="s">
         <v>380</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>381</v>
-      </c>
-      <c r="F162" t="s">
-        <v>328</v>
       </c>
       <c r="G162" t="s">
         <v>329</v>
@@ -6241,13 +6241,13 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182" t="s">
         <v>434</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>435</v>
-      </c>
-      <c r="F182" t="s">
-        <v>394</v>
       </c>
       <c r="G182" t="s">
         <v>395</v>
@@ -6264,13 +6264,13 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" t="s">
         <v>434</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>435</v>
-      </c>
-      <c r="F183" t="s">
-        <v>394</v>
       </c>
       <c r="G183" t="s">
         <v>395</v>
@@ -6287,13 +6287,13 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>392</v>
+      </c>
+      <c r="E184" t="s">
         <v>434</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>435</v>
-      </c>
-      <c r="F184" t="s">
-        <v>394</v>
       </c>
       <c r="G184" t="s">
         <v>395</v>
@@ -6310,13 +6310,13 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>392</v>
+      </c>
+      <c r="E185" t="s">
         <v>434</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>435</v>
-      </c>
-      <c r="F185" t="s">
-        <v>394</v>
       </c>
       <c r="G185" t="s">
         <v>395</v>
@@ -6333,13 +6333,13 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>392</v>
+      </c>
+      <c r="E186" t="s">
         <v>434</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>435</v>
-      </c>
-      <c r="F186" t="s">
-        <v>394</v>
       </c>
       <c r="G186" t="s">
         <v>395</v>
@@ -6356,13 +6356,13 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" t="s">
         <v>434</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>435</v>
-      </c>
-      <c r="F187" t="s">
-        <v>394</v>
       </c>
       <c r="G187" t="s">
         <v>395</v>
@@ -6379,13 +6379,13 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" t="s">
         <v>434</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>435</v>
-      </c>
-      <c r="F188" t="s">
-        <v>394</v>
       </c>
       <c r="G188" t="s">
         <v>395</v>
@@ -6402,13 +6402,13 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>392</v>
+      </c>
+      <c r="E189" t="s">
         <v>434</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>435</v>
-      </c>
-      <c r="F189" t="s">
-        <v>394</v>
       </c>
       <c r="G189" t="s">
         <v>395</v>
@@ -6425,13 +6425,13 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" t="s">
         <v>434</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>435</v>
-      </c>
-      <c r="F190" t="s">
-        <v>394</v>
       </c>
       <c r="G190" t="s">
         <v>395</v>
@@ -6448,13 +6448,13 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>392</v>
+      </c>
+      <c r="E191" t="s">
         <v>434</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>435</v>
-      </c>
-      <c r="F191" t="s">
-        <v>394</v>
       </c>
       <c r="G191" t="s">
         <v>395</v>
@@ -6471,13 +6471,13 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>392</v>
+      </c>
+      <c r="E192" t="s">
         <v>456</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>457</v>
-      </c>
-      <c r="F192" t="s">
-        <v>394</v>
       </c>
       <c r="G192" t="s">
         <v>395</v>

--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>Health, General</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>Population Policies/Programmes &amp; Reproductive Health</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Population Policies/Programmes &amp; Reproductive Health</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>Water Supply &amp; Sanitation</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Water Supply &amp; Sanitation</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>Other Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Other Social Infrastructure &amp; Services</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>Transport &amp; Storage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transport &amp; Storage</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banking &amp; Financial Services</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>Business &amp; Other Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Business &amp; Other Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>Trade Policies &amp; Regulations</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Trade Policies &amp; Regulations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>Tourism</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>General Environment Protection</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>General Environment Protection</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>Other Multisector</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Other Multisector</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>General Budget Support</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>General Budget Support</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>Development Food Assistance</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Development Food Assistance</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>Other Commodity Assistance</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Other Commodity Assistance</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>Action Relating to Debt</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Action Relating to Debt</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>Emergency Response</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Emergency Response</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>Reconstruction Relief &amp; Rehabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction Relief &amp; Rehabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>Disaster Prevention &amp; Preparedness</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Disaster Prevention &amp; Preparedness</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>Administrative Costs of Donors</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Administrative Costs of Donors</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>Refugees in Donor Countries</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugees in Donor Countries</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>Unallocated / Unspecified</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Unallocated / Unspecified</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2216,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2239,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2262,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2285,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2308,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2331,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2354,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -2377,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2400,10 +2400,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -2423,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2538,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2561,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -2607,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -2653,10 +2653,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>63</v>
@@ -2676,10 +2676,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -2699,10 +2699,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -2722,10 +2722,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -2745,10 +2745,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
@@ -2768,10 +2768,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>83</v>
@@ -2791,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
@@ -2814,10 +2814,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>83</v>
@@ -2837,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
@@ -2860,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -2886,10 +2886,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2909,10 +2909,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2932,10 +2932,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2955,10 +2955,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2978,10 +2978,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -3001,10 +3001,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3047,10 +3047,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
         <v>109</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3070,10 +3070,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
         <v>109</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,10 +3093,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
         <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3116,10 +3116,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>109</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3139,10 +3139,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
         <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3162,10 +3162,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
         <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3185,10 +3185,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
         <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3208,10 +3208,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3231,10 +3231,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>169</v>
@@ -3642,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>169</v>
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>169</v>
@@ -3688,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>169</v>
@@ -3711,10 +3711,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>169</v>
@@ -3734,10 +3734,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>169</v>
@@ -3760,10 +3760,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
         <v>183</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3783,10 +3783,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
         <v>183</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3806,10 +3806,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
         <v>183</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3829,10 +3829,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" t="s">
         <v>183</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3852,10 +3852,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
         <v>183</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3875,10 +3875,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" t="s">
         <v>183</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3898,10 +3898,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
         <v>183</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3921,10 +3921,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" t="s">
         <v>183</v>
-      </c>
-      <c r="F81" t="s">
-        <v>182</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3944,10 +3944,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
         <v>183</v>
-      </c>
-      <c r="F82" t="s">
-        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3967,10 +3967,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>183</v>
-      </c>
-      <c r="F83" t="s">
-        <v>182</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3990,10 +3990,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>183</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4013,10 +4013,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
         <v>207</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4036,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>207</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4059,10 +4059,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
         <v>207</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4082,10 +4082,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>207</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4105,10 +4105,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>207</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4128,10 +4128,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
         <v>207</v>
-      </c>
-      <c r="F90" t="s">
-        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4151,10 +4151,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>207</v>
-      </c>
-      <c r="F91" t="s">
-        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4174,10 +4174,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
         <v>223</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4197,10 +4197,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
         <v>223</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4220,10 +4220,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
         <v>223</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4243,10 +4243,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
         <v>223</v>
-      </c>
-      <c r="F95" t="s">
-        <v>222</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>245</v>
@@ -4378,10 +4378,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s">
         <v>245</v>
@@ -4401,10 +4401,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>245</v>
@@ -4424,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F103" t="s">
         <v>245</v>
@@ -4447,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>245</v>
@@ -4470,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>245</v>
@@ -4493,10 +4493,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
         <v>245</v>
@@ -4516,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
         <v>245</v>
@@ -4539,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>245</v>
@@ -4562,10 +4562,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>265</v>
@@ -4585,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
         <v>265</v>
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>265</v>
@@ -4631,10 +4631,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>265</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
         <v>265</v>
@@ -4677,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>265</v>
@@ -4700,10 +4700,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="F115" t="s">
         <v>279</v>
@@ -4723,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F116" t="s">
         <v>283</v>
@@ -4746,10 +4746,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
         <v>287</v>
@@ -4769,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>287</v>
@@ -4792,10 +4792,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
         <v>287</v>
@@ -4815,10 +4815,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
         <v>287</v>
@@ -4838,10 +4838,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
         <v>287</v>
@@ -4861,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
         <v>287</v>
@@ -4884,10 +4884,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
         <v>287</v>
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
         <v>303</v>
-      </c>
-      <c r="F124" t="s">
-        <v>302</v>
       </c>
       <c r="G124" t="s">
         <v>303</v>
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
         <v>303</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
       </c>
       <c r="G125" t="s">
         <v>303</v>
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>303</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>303</v>
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" t="s">
         <v>303</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
       </c>
       <c r="G127" t="s">
         <v>303</v>
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
         <v>303</v>
-      </c>
-      <c r="F128" t="s">
-        <v>302</v>
       </c>
       <c r="G128" t="s">
         <v>303</v>
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" t="s">
         <v>303</v>
-      </c>
-      <c r="F129" t="s">
-        <v>302</v>
       </c>
       <c r="G129" t="s">
         <v>303</v>
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
         <v>317</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>317</v>
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
+        <v>316</v>
+      </c>
+      <c r="F131" t="s">
         <v>317</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
       </c>
       <c r="G131" t="s">
         <v>317</v>
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" t="s">
         <v>317</v>
-      </c>
-      <c r="F132" t="s">
-        <v>316</v>
       </c>
       <c r="G132" t="s">
         <v>317</v>
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" t="s">
         <v>317</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>317</v>
@@ -5551,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F152" t="s">
         <v>367</v>
@@ -5574,10 +5574,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F153" t="s">
         <v>367</v>
@@ -5597,10 +5597,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F154" t="s">
         <v>367</v>
@@ -5620,10 +5620,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F155" t="s">
         <v>367</v>
@@ -5643,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F156" t="s">
         <v>367</v>
@@ -5666,10 +5666,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F157" t="s">
         <v>367</v>
@@ -5689,10 +5689,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F158" t="s">
         <v>381</v>
@@ -5712,10 +5712,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F159" t="s">
         <v>381</v>
@@ -5735,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F160" t="s">
         <v>381</v>
@@ -5758,10 +5758,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F161" t="s">
         <v>381</v>
@@ -5781,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E162" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
         <v>381</v>
@@ -6241,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F182" t="s">
         <v>435</v>
@@ -6264,10 +6264,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E183" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F183" t="s">
         <v>435</v>
@@ -6287,10 +6287,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F184" t="s">
         <v>435</v>
@@ -6310,10 +6310,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F185" t="s">
         <v>435</v>
@@ -6333,10 +6333,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E186" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F186" t="s">
         <v>435</v>
@@ -6356,10 +6356,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F187" t="s">
         <v>435</v>
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F188" t="s">
         <v>435</v>
@@ -6402,10 +6402,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F189" t="s">
         <v>435</v>
@@ -6425,10 +6425,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E190" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F190" t="s">
         <v>435</v>
@@ -6448,10 +6448,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F191" t="s">
         <v>435</v>
@@ -6471,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="F192" t="s">
         <v>457</v>
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
         <v>461</v>
-      </c>
-      <c r="F193" t="s">
-        <v>460</v>
       </c>
       <c r="G193" t="s">
         <v>461</v>
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
         <v>461</v>
-      </c>
-      <c r="F194" t="s">
-        <v>460</v>
       </c>
       <c r="G194" t="s">
         <v>461</v>
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" t="s">
         <v>461</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
       </c>
       <c r="G195" t="s">
         <v>461</v>
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" t="s">
         <v>461</v>
-      </c>
-      <c r="F196" t="s">
-        <v>460</v>
       </c>
       <c r="G196" t="s">
         <v>461</v>
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
+        <v>460</v>
+      </c>
+      <c r="F197" t="s">
         <v>461</v>
-      </c>
-      <c r="F197" t="s">
-        <v>460</v>
       </c>
       <c r="G197" t="s">
         <v>461</v>
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
+        <v>460</v>
+      </c>
+      <c r="F198" t="s">
         <v>461</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
       </c>
       <c r="G198" t="s">
         <v>461</v>
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
+        <v>474</v>
+      </c>
+      <c r="F199" t="s">
         <v>475</v>
-      </c>
-      <c r="F199" t="s">
-        <v>474</v>
       </c>
       <c r="G199" t="s">
         <v>475</v>
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" t="s">
         <v>479</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>479</v>
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" t="s">
         <v>479</v>
-      </c>
-      <c r="F201" t="s">
-        <v>478</v>
       </c>
       <c r="G201" t="s">
         <v>479</v>
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
         <v>479</v>
-      </c>
-      <c r="F202" t="s">
-        <v>478</v>
       </c>
       <c r="G202" t="s">
         <v>479</v>
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
+        <v>478</v>
+      </c>
+      <c r="F203" t="s">
         <v>479</v>
-      </c>
-      <c r="F203" t="s">
-        <v>478</v>
       </c>
       <c r="G203" t="s">
         <v>479</v>
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" t="s">
         <v>479</v>
-      </c>
-      <c r="F204" t="s">
-        <v>478</v>
       </c>
       <c r="G204" t="s">
         <v>479</v>
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
+        <v>478</v>
+      </c>
+      <c r="F205" t="s">
         <v>479</v>
-      </c>
-      <c r="F205" t="s">
-        <v>478</v>
       </c>
       <c r="G205" t="s">
         <v>479</v>
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
+        <v>492</v>
+      </c>
+      <c r="F206" t="s">
         <v>493</v>
-      </c>
-      <c r="F206" t="s">
-        <v>492</v>
       </c>
       <c r="G206" t="s">
         <v>493</v>
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
+        <v>492</v>
+      </c>
+      <c r="F207" t="s">
         <v>493</v>
-      </c>
-      <c r="F207" t="s">
-        <v>492</v>
       </c>
       <c r="G207" t="s">
         <v>493</v>
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
+        <v>492</v>
+      </c>
+      <c r="F208" t="s">
         <v>493</v>
-      </c>
-      <c r="F208" t="s">
-        <v>492</v>
       </c>
       <c r="G208" t="s">
         <v>493</v>
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" t="s">
         <v>493</v>
-      </c>
-      <c r="F209" t="s">
-        <v>492</v>
       </c>
       <c r="G209" t="s">
         <v>493</v>
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
+        <v>492</v>
+      </c>
+      <c r="F210" t="s">
         <v>493</v>
-      </c>
-      <c r="F210" t="s">
-        <v>492</v>
       </c>
       <c r="G210" t="s">
         <v>493</v>
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
+        <v>492</v>
+      </c>
+      <c r="F211" t="s">
         <v>493</v>
-      </c>
-      <c r="F211" t="s">
-        <v>492</v>
       </c>
       <c r="G211" t="s">
         <v>493</v>
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
+        <v>492</v>
+      </c>
+      <c r="F212" t="s">
         <v>493</v>
-      </c>
-      <c r="F212" t="s">
-        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>493</v>
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
+        <v>492</v>
+      </c>
+      <c r="F213" t="s">
         <v>493</v>
-      </c>
-      <c r="F213" t="s">
-        <v>492</v>
       </c>
       <c r="G213" t="s">
         <v>493</v>
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
+        <v>492</v>
+      </c>
+      <c r="F214" t="s">
         <v>493</v>
-      </c>
-      <c r="F214" t="s">
-        <v>492</v>
       </c>
       <c r="G214" t="s">
         <v>493</v>
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
+        <v>492</v>
+      </c>
+      <c r="F215" t="s">
         <v>493</v>
-      </c>
-      <c r="F215" t="s">
-        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>493</v>
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" t="s">
         <v>515</v>
-      </c>
-      <c r="F216" t="s">
-        <v>514</v>
       </c>
       <c r="G216" t="s">
         <v>515</v>
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" t="s">
         <v>519</v>
-      </c>
-      <c r="F217" t="s">
-        <v>518</v>
       </c>
       <c r="G217" t="s">
         <v>519</v>
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
+        <v>522</v>
+      </c>
+      <c r="F218" t="s">
         <v>523</v>
-      </c>
-      <c r="F218" t="s">
-        <v>522</v>
       </c>
       <c r="G218" t="s">
         <v>523</v>
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
+        <v>522</v>
+      </c>
+      <c r="F219" t="s">
         <v>523</v>
-      </c>
-      <c r="F219" t="s">
-        <v>522</v>
       </c>
       <c r="G219" t="s">
         <v>523</v>
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
+        <v>528</v>
+      </c>
+      <c r="F220" t="s">
         <v>529</v>
-      </c>
-      <c r="F220" t="s">
-        <v>528</v>
       </c>
       <c r="G220" t="s">
         <v>529</v>
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
+        <v>528</v>
+      </c>
+      <c r="F221" t="s">
         <v>529</v>
-      </c>
-      <c r="F221" t="s">
-        <v>528</v>
       </c>
       <c r="G221" t="s">
         <v>529</v>
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
+        <v>528</v>
+      </c>
+      <c r="F222" t="s">
         <v>529</v>
-      </c>
-      <c r="F222" t="s">
-        <v>528</v>
       </c>
       <c r="G222" t="s">
         <v>529</v>
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
+        <v>528</v>
+      </c>
+      <c r="F223" t="s">
         <v>529</v>
-      </c>
-      <c r="F223" t="s">
-        <v>528</v>
       </c>
       <c r="G223" t="s">
         <v>529</v>
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
+        <v>528</v>
+      </c>
+      <c r="F224" t="s">
         <v>529</v>
-      </c>
-      <c r="F224" t="s">
-        <v>528</v>
       </c>
       <c r="G224" t="s">
         <v>529</v>
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
+        <v>528</v>
+      </c>
+      <c r="F225" t="s">
         <v>529</v>
-      </c>
-      <c r="F225" t="s">
-        <v>528</v>
       </c>
       <c r="G225" t="s">
         <v>529</v>
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
+        <v>528</v>
+      </c>
+      <c r="F226" t="s">
         <v>529</v>
-      </c>
-      <c r="F226" t="s">
-        <v>528</v>
       </c>
       <c r="G226" t="s">
         <v>529</v>
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
+        <v>544</v>
+      </c>
+      <c r="F227" t="s">
         <v>545</v>
-      </c>
-      <c r="F227" t="s">
-        <v>544</v>
       </c>
       <c r="G227" t="s">
         <v>545</v>
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" t="s">
         <v>545</v>
-      </c>
-      <c r="F228" t="s">
-        <v>544</v>
       </c>
       <c r="G228" t="s">
         <v>545</v>
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" t="s">
         <v>545</v>
-      </c>
-      <c r="F229" t="s">
-        <v>544</v>
       </c>
       <c r="G229" t="s">
         <v>545</v>
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" t="s">
         <v>553</v>
-      </c>
-      <c r="F230" t="s">
-        <v>552</v>
       </c>
       <c r="G230" t="s">
         <v>553</v>
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
+        <v>556</v>
+      </c>
+      <c r="F231" t="s">
         <v>557</v>
-      </c>
-      <c r="F231" t="s">
-        <v>556</v>
       </c>
       <c r="G231" t="s">
         <v>557</v>
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
+        <v>560</v>
+      </c>
+      <c r="F232" t="s">
         <v>561</v>
-      </c>
-      <c r="F232" t="s">
-        <v>560</v>
       </c>
       <c r="G232" t="s">
         <v>561</v>
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
+        <v>564</v>
+      </c>
+      <c r="F233" t="s">
         <v>565</v>
-      </c>
-      <c r="F233" t="s">
-        <v>564</v>
       </c>
       <c r="G233" t="s">
         <v>565</v>
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
+        <v>568</v>
+      </c>
+      <c r="F234" t="s">
         <v>569</v>
-      </c>
-      <c r="F234" t="s">
-        <v>568</v>
       </c>
       <c r="G234" t="s">
         <v>569</v>
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
+        <v>568</v>
+      </c>
+      <c r="F235" t="s">
         <v>569</v>
-      </c>
-      <c r="F235" t="s">
-        <v>568</v>
       </c>
       <c r="G235" t="s">
         <v>569</v>

--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Basic Education</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Post-Secondary Education</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Basic Health</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Non-communicable diseases (NCDs)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflict, Peace &amp; Security</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Energy generation, renewable sources</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Energy generation, non-renewable sources</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Hybrid energy plants</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Nuclear energy plants</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Energy distribution</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,16 +2193,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,16 +2216,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,16 +2262,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,16 +2285,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,16 +2331,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,16 +2354,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,16 +2377,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,16 +2400,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,16 +2423,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2538,16 +2538,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2561,16 +2561,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,16 +2584,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,16 +2607,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,16 +2630,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,16 +2653,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
         <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,16 +2676,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2699,16 +2699,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
       </c>
       <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2722,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>51</v>
       </c>
       <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2745,16 +2745,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2768,16 +2768,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
         <v>83</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2791,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>51</v>
       </c>
       <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
         <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2814,16 +2814,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
         <v>83</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2837,16 +2837,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>51</v>
       </c>
       <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
         <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2860,16 +2860,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
         <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2909,10 +2909,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2932,10 +2932,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>97</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2955,10 +2955,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2978,10 +2978,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -3001,10 +3001,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
         <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3047,10 +3047,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
         <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>109</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3070,10 +3070,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,10 +3093,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3116,10 +3116,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3139,10 +3139,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
         <v>108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3162,10 +3162,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3185,10 +3185,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>109</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3208,10 +3208,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3231,10 +3231,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3619,16 +3619,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
       </c>
       <c r="F68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" t="s">
         <v>169</v>
-      </c>
-      <c r="G68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3642,16 +3642,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
       <c r="F69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" t="s">
         <v>169</v>
-      </c>
-      <c r="G69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3665,16 +3665,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
       </c>
       <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="s">
         <v>169</v>
-      </c>
-      <c r="G70" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3688,16 +3688,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
         <v>133</v>
       </c>
       <c r="F71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" t="s">
         <v>169</v>
-      </c>
-      <c r="G71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3711,16 +3711,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
       <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s">
         <v>169</v>
-      </c>
-      <c r="G72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3734,16 +3734,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
       <c r="F73" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" t="s">
         <v>169</v>
-      </c>
-      <c r="G73" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
         <v>182</v>
-      </c>
-      <c r="F74" t="s">
-        <v>183</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3783,10 +3783,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
-      </c>
-      <c r="F75" t="s">
-        <v>183</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3806,10 +3806,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
         <v>182</v>
-      </c>
-      <c r="F76" t="s">
-        <v>183</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3829,10 +3829,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" t="s">
-        <v>183</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3852,10 +3852,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>183</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3875,10 +3875,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" t="s">
         <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>183</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3898,10 +3898,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
         <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>183</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3921,10 +3921,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
         <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>183</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3944,10 +3944,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
         <v>182</v>
-      </c>
-      <c r="F82" t="s">
-        <v>183</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3967,10 +3967,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" t="s">
         <v>182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3990,10 +3990,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" t="s">
         <v>182</v>
-      </c>
-      <c r="F84" t="s">
-        <v>183</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4013,10 +4013,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>207</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4036,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>207</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4059,10 +4059,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" t="s">
         <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>207</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4082,10 +4082,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" t="s">
         <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>207</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4105,10 +4105,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>207</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4128,10 +4128,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>207</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4151,10 +4151,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" t="s">
         <v>206</v>
-      </c>
-      <c r="F91" t="s">
-        <v>207</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4174,10 +4174,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
         <v>222</v>
-      </c>
-      <c r="F92" t="s">
-        <v>223</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4197,10 +4197,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>223</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4220,10 +4220,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" t="s">
         <v>222</v>
-      </c>
-      <c r="F94" t="s">
-        <v>223</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4243,10 +4243,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>223</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4355,16 +4355,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E100" t="s">
         <v>233</v>
       </c>
       <c r="F100" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" t="s">
         <v>245</v>
-      </c>
-      <c r="G100" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4378,16 +4378,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E101" t="s">
         <v>233</v>
       </c>
       <c r="F101" t="s">
+        <v>244</v>
+      </c>
+      <c r="G101" t="s">
         <v>245</v>
-      </c>
-      <c r="G101" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4401,16 +4401,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E102" t="s">
         <v>233</v>
       </c>
       <c r="F102" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" t="s">
         <v>245</v>
-      </c>
-      <c r="G102" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4424,16 +4424,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>233</v>
       </c>
       <c r="F103" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" t="s">
         <v>245</v>
-      </c>
-      <c r="G103" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4447,16 +4447,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
         <v>233</v>
       </c>
       <c r="F104" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" t="s">
         <v>245</v>
-      </c>
-      <c r="G104" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4470,16 +4470,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E105" t="s">
         <v>233</v>
       </c>
       <c r="F105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" t="s">
         <v>245</v>
-      </c>
-      <c r="G105" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4493,16 +4493,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E106" t="s">
         <v>233</v>
       </c>
       <c r="F106" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" t="s">
         <v>245</v>
-      </c>
-      <c r="G106" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4516,16 +4516,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
         <v>233</v>
       </c>
       <c r="F107" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" t="s">
         <v>245</v>
-      </c>
-      <c r="G107" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4539,16 +4539,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E108" t="s">
         <v>233</v>
       </c>
       <c r="F108" t="s">
+        <v>244</v>
+      </c>
+      <c r="G108" t="s">
         <v>245</v>
-      </c>
-      <c r="G108" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4562,16 +4562,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E109" t="s">
         <v>233</v>
       </c>
       <c r="F109" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" t="s">
         <v>265</v>
-      </c>
-      <c r="G109" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4585,16 +4585,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E110" t="s">
         <v>233</v>
       </c>
       <c r="F110" t="s">
+        <v>264</v>
+      </c>
+      <c r="G110" t="s">
         <v>265</v>
-      </c>
-      <c r="G110" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4608,16 +4608,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
         <v>233</v>
       </c>
       <c r="F111" t="s">
+        <v>264</v>
+      </c>
+      <c r="G111" t="s">
         <v>265</v>
-      </c>
-      <c r="G111" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4631,16 +4631,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E112" t="s">
         <v>233</v>
       </c>
       <c r="F112" t="s">
+        <v>264</v>
+      </c>
+      <c r="G112" t="s">
         <v>265</v>
-      </c>
-      <c r="G112" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4654,16 +4654,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
         <v>233</v>
       </c>
       <c r="F113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G113" t="s">
         <v>265</v>
-      </c>
-      <c r="G113" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4677,16 +4677,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E114" t="s">
         <v>233</v>
       </c>
       <c r="F114" t="s">
+        <v>264</v>
+      </c>
+      <c r="G114" t="s">
         <v>265</v>
-      </c>
-      <c r="G114" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4700,16 +4700,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
         <v>233</v>
       </c>
       <c r="F115" t="s">
+        <v>278</v>
+      </c>
+      <c r="G115" t="s">
         <v>279</v>
-      </c>
-      <c r="G115" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4723,16 +4723,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="E116" t="s">
         <v>233</v>
       </c>
       <c r="F116" t="s">
+        <v>282</v>
+      </c>
+      <c r="G116" t="s">
         <v>283</v>
-      </c>
-      <c r="G116" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4746,16 +4746,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E117" t="s">
         <v>233</v>
       </c>
       <c r="F117" t="s">
+        <v>286</v>
+      </c>
+      <c r="G117" t="s">
         <v>287</v>
-      </c>
-      <c r="G117" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4769,16 +4769,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E118" t="s">
         <v>233</v>
       </c>
       <c r="F118" t="s">
+        <v>286</v>
+      </c>
+      <c r="G118" t="s">
         <v>287</v>
-      </c>
-      <c r="G118" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E119" t="s">
         <v>233</v>
       </c>
       <c r="F119" t="s">
+        <v>286</v>
+      </c>
+      <c r="G119" t="s">
         <v>287</v>
-      </c>
-      <c r="G119" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4815,16 +4815,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E120" t="s">
         <v>233</v>
       </c>
       <c r="F120" t="s">
+        <v>286</v>
+      </c>
+      <c r="G120" t="s">
         <v>287</v>
-      </c>
-      <c r="G120" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4838,16 +4838,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E121" t="s">
         <v>233</v>
       </c>
       <c r="F121" t="s">
+        <v>286</v>
+      </c>
+      <c r="G121" t="s">
         <v>287</v>
-      </c>
-      <c r="G121" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4861,16 +4861,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E122" t="s">
         <v>233</v>
       </c>
       <c r="F122" t="s">
+        <v>286</v>
+      </c>
+      <c r="G122" t="s">
         <v>287</v>
-      </c>
-      <c r="G122" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4884,16 +4884,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
         <v>233</v>
       </c>
       <c r="F123" t="s">
+        <v>286</v>
+      </c>
+      <c r="G123" t="s">
         <v>287</v>
-      </c>
-      <c r="G123" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
+        <v>303</v>
+      </c>
+      <c r="F124" t="s">
         <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>303</v>
       </c>
       <c r="G124" t="s">
         <v>303</v>
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>303</v>
       </c>
       <c r="G125" t="s">
         <v>303</v>
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
+        <v>303</v>
+      </c>
+      <c r="F126" t="s">
         <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>303</v>
       </c>
       <c r="G126" t="s">
         <v>303</v>
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
+        <v>303</v>
+      </c>
+      <c r="F127" t="s">
         <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>303</v>
       </c>
       <c r="G127" t="s">
         <v>303</v>
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
+        <v>303</v>
+      </c>
+      <c r="F128" t="s">
         <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>303</v>
       </c>
       <c r="G128" t="s">
         <v>303</v>
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
+        <v>303</v>
+      </c>
+      <c r="F129" t="s">
         <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>303</v>
       </c>
       <c r="G129" t="s">
         <v>303</v>
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
+        <v>317</v>
+      </c>
+      <c r="F130" t="s">
         <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>317</v>
       </c>
       <c r="G130" t="s">
         <v>317</v>
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
+        <v>317</v>
+      </c>
+      <c r="F131" t="s">
         <v>316</v>
-      </c>
-      <c r="F131" t="s">
-        <v>317</v>
       </c>
       <c r="G131" t="s">
         <v>317</v>
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
+        <v>317</v>
+      </c>
+      <c r="F132" t="s">
         <v>316</v>
-      </c>
-      <c r="F132" t="s">
-        <v>317</v>
       </c>
       <c r="G132" t="s">
         <v>317</v>
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
+        <v>317</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
-      </c>
-      <c r="F133" t="s">
-        <v>317</v>
       </c>
       <c r="G133" t="s">
         <v>317</v>
@@ -5551,16 +5551,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E152" t="s">
         <v>327</v>
       </c>
       <c r="F152" t="s">
+        <v>366</v>
+      </c>
+      <c r="G152" t="s">
         <v>367</v>
-      </c>
-      <c r="G152" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5574,16 +5574,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E153" t="s">
         <v>327</v>
       </c>
       <c r="F153" t="s">
+        <v>366</v>
+      </c>
+      <c r="G153" t="s">
         <v>367</v>
-      </c>
-      <c r="G153" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5597,16 +5597,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E154" t="s">
         <v>327</v>
       </c>
       <c r="F154" t="s">
+        <v>366</v>
+      </c>
+      <c r="G154" t="s">
         <v>367</v>
-      </c>
-      <c r="G154" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5620,16 +5620,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E155" t="s">
         <v>327</v>
       </c>
       <c r="F155" t="s">
+        <v>366</v>
+      </c>
+      <c r="G155" t="s">
         <v>367</v>
-      </c>
-      <c r="G155" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5643,16 +5643,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E156" t="s">
         <v>327</v>
       </c>
       <c r="F156" t="s">
+        <v>366</v>
+      </c>
+      <c r="G156" t="s">
         <v>367</v>
-      </c>
-      <c r="G156" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5666,16 +5666,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E157" t="s">
         <v>327</v>
       </c>
       <c r="F157" t="s">
+        <v>366</v>
+      </c>
+      <c r="G157" t="s">
         <v>367</v>
-      </c>
-      <c r="G157" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5689,16 +5689,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E158" t="s">
         <v>327</v>
       </c>
       <c r="F158" t="s">
+        <v>380</v>
+      </c>
+      <c r="G158" t="s">
         <v>381</v>
-      </c>
-      <c r="G158" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5712,16 +5712,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E159" t="s">
         <v>327</v>
       </c>
       <c r="F159" t="s">
+        <v>380</v>
+      </c>
+      <c r="G159" t="s">
         <v>381</v>
-      </c>
-      <c r="G159" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5735,16 +5735,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E160" t="s">
         <v>327</v>
       </c>
       <c r="F160" t="s">
+        <v>380</v>
+      </c>
+      <c r="G160" t="s">
         <v>381</v>
-      </c>
-      <c r="G160" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5758,16 +5758,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E161" t="s">
         <v>327</v>
       </c>
       <c r="F161" t="s">
+        <v>380</v>
+      </c>
+      <c r="G161" t="s">
         <v>381</v>
-      </c>
-      <c r="G161" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5781,16 +5781,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E162" t="s">
         <v>327</v>
       </c>
       <c r="F162" t="s">
+        <v>380</v>
+      </c>
+      <c r="G162" t="s">
         <v>381</v>
-      </c>
-      <c r="G162" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6241,16 +6241,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E182" t="s">
         <v>393</v>
       </c>
       <c r="F182" t="s">
+        <v>434</v>
+      </c>
+      <c r="G182" t="s">
         <v>435</v>
-      </c>
-      <c r="G182" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6264,16 +6264,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E183" t="s">
         <v>393</v>
       </c>
       <c r="F183" t="s">
+        <v>434</v>
+      </c>
+      <c r="G183" t="s">
         <v>435</v>
-      </c>
-      <c r="G183" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6287,16 +6287,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E184" t="s">
         <v>393</v>
       </c>
       <c r="F184" t="s">
+        <v>434</v>
+      </c>
+      <c r="G184" t="s">
         <v>435</v>
-      </c>
-      <c r="G184" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6310,16 +6310,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E185" t="s">
         <v>393</v>
       </c>
       <c r="F185" t="s">
+        <v>434</v>
+      </c>
+      <c r="G185" t="s">
         <v>435</v>
-      </c>
-      <c r="G185" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6333,16 +6333,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E186" t="s">
         <v>393</v>
       </c>
       <c r="F186" t="s">
+        <v>434</v>
+      </c>
+      <c r="G186" t="s">
         <v>435</v>
-      </c>
-      <c r="G186" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6356,16 +6356,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E187" t="s">
         <v>393</v>
       </c>
       <c r="F187" t="s">
+        <v>434</v>
+      </c>
+      <c r="G187" t="s">
         <v>435</v>
-      </c>
-      <c r="G187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6379,16 +6379,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E188" t="s">
         <v>393</v>
       </c>
       <c r="F188" t="s">
+        <v>434</v>
+      </c>
+      <c r="G188" t="s">
         <v>435</v>
-      </c>
-      <c r="G188" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6402,16 +6402,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E189" t="s">
         <v>393</v>
       </c>
       <c r="F189" t="s">
+        <v>434</v>
+      </c>
+      <c r="G189" t="s">
         <v>435</v>
-      </c>
-      <c r="G189" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6425,16 +6425,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E190" t="s">
         <v>393</v>
       </c>
       <c r="F190" t="s">
+        <v>434</v>
+      </c>
+      <c r="G190" t="s">
         <v>435</v>
-      </c>
-      <c r="G190" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6448,16 +6448,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="E191" t="s">
         <v>393</v>
       </c>
       <c r="F191" t="s">
+        <v>434</v>
+      </c>
+      <c r="G191" t="s">
         <v>435</v>
-      </c>
-      <c r="G191" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6471,16 +6471,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="E192" t="s">
         <v>393</v>
       </c>
       <c r="F192" t="s">
+        <v>456</v>
+      </c>
+      <c r="G192" t="s">
         <v>457</v>
-      </c>
-      <c r="G192" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
+        <v>461</v>
+      </c>
+      <c r="F193" t="s">
         <v>460</v>
-      </c>
-      <c r="F193" t="s">
-        <v>461</v>
       </c>
       <c r="G193" t="s">
         <v>461</v>
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
+        <v>461</v>
+      </c>
+      <c r="F194" t="s">
         <v>460</v>
-      </c>
-      <c r="F194" t="s">
-        <v>461</v>
       </c>
       <c r="G194" t="s">
         <v>461</v>
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
+        <v>461</v>
+      </c>
+      <c r="F195" t="s">
         <v>460</v>
-      </c>
-      <c r="F195" t="s">
-        <v>461</v>
       </c>
       <c r="G195" t="s">
         <v>461</v>
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
+        <v>461</v>
+      </c>
+      <c r="F196" t="s">
         <v>460</v>
-      </c>
-      <c r="F196" t="s">
-        <v>461</v>
       </c>
       <c r="G196" t="s">
         <v>461</v>
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
+        <v>461</v>
+      </c>
+      <c r="F197" t="s">
         <v>460</v>
-      </c>
-      <c r="F197" t="s">
-        <v>461</v>
       </c>
       <c r="G197" t="s">
         <v>461</v>
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
+        <v>461</v>
+      </c>
+      <c r="F198" t="s">
         <v>460</v>
-      </c>
-      <c r="F198" t="s">
-        <v>461</v>
       </c>
       <c r="G198" t="s">
         <v>461</v>
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
+        <v>475</v>
+      </c>
+      <c r="F199" t="s">
         <v>474</v>
-      </c>
-      <c r="F199" t="s">
-        <v>475</v>
       </c>
       <c r="G199" t="s">
         <v>475</v>
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
+        <v>479</v>
+      </c>
+      <c r="F200" t="s">
         <v>478</v>
-      </c>
-      <c r="F200" t="s">
-        <v>479</v>
       </c>
       <c r="G200" t="s">
         <v>479</v>
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
+        <v>479</v>
+      </c>
+      <c r="F201" t="s">
         <v>478</v>
-      </c>
-      <c r="F201" t="s">
-        <v>479</v>
       </c>
       <c r="G201" t="s">
         <v>479</v>
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
+        <v>479</v>
+      </c>
+      <c r="F202" t="s">
         <v>478</v>
-      </c>
-      <c r="F202" t="s">
-        <v>479</v>
       </c>
       <c r="G202" t="s">
         <v>479</v>
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
+        <v>479</v>
+      </c>
+      <c r="F203" t="s">
         <v>478</v>
-      </c>
-      <c r="F203" t="s">
-        <v>479</v>
       </c>
       <c r="G203" t="s">
         <v>479</v>
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
+        <v>479</v>
+      </c>
+      <c r="F204" t="s">
         <v>478</v>
-      </c>
-      <c r="F204" t="s">
-        <v>479</v>
       </c>
       <c r="G204" t="s">
         <v>479</v>
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
+        <v>479</v>
+      </c>
+      <c r="F205" t="s">
         <v>478</v>
-      </c>
-      <c r="F205" t="s">
-        <v>479</v>
       </c>
       <c r="G205" t="s">
         <v>479</v>
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
+        <v>493</v>
+      </c>
+      <c r="F206" t="s">
         <v>492</v>
-      </c>
-      <c r="F206" t="s">
-        <v>493</v>
       </c>
       <c r="G206" t="s">
         <v>493</v>
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
+        <v>493</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="F207" t="s">
-        <v>493</v>
       </c>
       <c r="G207" t="s">
         <v>493</v>
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
+        <v>493</v>
+      </c>
+      <c r="F208" t="s">
         <v>492</v>
-      </c>
-      <c r="F208" t="s">
-        <v>493</v>
       </c>
       <c r="G208" t="s">
         <v>493</v>
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
+        <v>493</v>
+      </c>
+      <c r="F209" t="s">
         <v>492</v>
-      </c>
-      <c r="F209" t="s">
-        <v>493</v>
       </c>
       <c r="G209" t="s">
         <v>493</v>
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
+        <v>493</v>
+      </c>
+      <c r="F210" t="s">
         <v>492</v>
-      </c>
-      <c r="F210" t="s">
-        <v>493</v>
       </c>
       <c r="G210" t="s">
         <v>493</v>
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
+        <v>493</v>
+      </c>
+      <c r="F211" t="s">
         <v>492</v>
-      </c>
-      <c r="F211" t="s">
-        <v>493</v>
       </c>
       <c r="G211" t="s">
         <v>493</v>
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
+        <v>493</v>
+      </c>
+      <c r="F212" t="s">
         <v>492</v>
-      </c>
-      <c r="F212" t="s">
-        <v>493</v>
       </c>
       <c r="G212" t="s">
         <v>493</v>
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
+        <v>493</v>
+      </c>
+      <c r="F213" t="s">
         <v>492</v>
-      </c>
-      <c r="F213" t="s">
-        <v>493</v>
       </c>
       <c r="G213" t="s">
         <v>493</v>
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
+        <v>493</v>
+      </c>
+      <c r="F214" t="s">
         <v>492</v>
-      </c>
-      <c r="F214" t="s">
-        <v>493</v>
       </c>
       <c r="G214" t="s">
         <v>493</v>
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
+        <v>493</v>
+      </c>
+      <c r="F215" t="s">
         <v>492</v>
-      </c>
-      <c r="F215" t="s">
-        <v>493</v>
       </c>
       <c r="G215" t="s">
         <v>493</v>
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
+        <v>515</v>
+      </c>
+      <c r="F216" t="s">
         <v>514</v>
-      </c>
-      <c r="F216" t="s">
-        <v>515</v>
       </c>
       <c r="G216" t="s">
         <v>515</v>
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
+        <v>519</v>
+      </c>
+      <c r="F217" t="s">
         <v>518</v>
-      </c>
-      <c r="F217" t="s">
-        <v>519</v>
       </c>
       <c r="G217" t="s">
         <v>519</v>
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
+        <v>523</v>
+      </c>
+      <c r="F218" t="s">
         <v>522</v>
-      </c>
-      <c r="F218" t="s">
-        <v>523</v>
       </c>
       <c r="G218" t="s">
         <v>523</v>
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
+        <v>523</v>
+      </c>
+      <c r="F219" t="s">
         <v>522</v>
-      </c>
-      <c r="F219" t="s">
-        <v>523</v>
       </c>
       <c r="G219" t="s">
         <v>523</v>
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
+        <v>529</v>
+      </c>
+      <c r="F220" t="s">
         <v>528</v>
-      </c>
-      <c r="F220" t="s">
-        <v>529</v>
       </c>
       <c r="G220" t="s">
         <v>529</v>
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
+        <v>529</v>
+      </c>
+      <c r="F221" t="s">
         <v>528</v>
-      </c>
-      <c r="F221" t="s">
-        <v>529</v>
       </c>
       <c r="G221" t="s">
         <v>529</v>
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
+        <v>529</v>
+      </c>
+      <c r="F222" t="s">
         <v>528</v>
-      </c>
-      <c r="F222" t="s">
-        <v>529</v>
       </c>
       <c r="G222" t="s">
         <v>529</v>
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
+        <v>529</v>
+      </c>
+      <c r="F223" t="s">
         <v>528</v>
-      </c>
-      <c r="F223" t="s">
-        <v>529</v>
       </c>
       <c r="G223" t="s">
         <v>529</v>
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
+        <v>529</v>
+      </c>
+      <c r="F224" t="s">
         <v>528</v>
-      </c>
-      <c r="F224" t="s">
-        <v>529</v>
       </c>
       <c r="G224" t="s">
         <v>529</v>
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
+        <v>529</v>
+      </c>
+      <c r="F225" t="s">
         <v>528</v>
-      </c>
-      <c r="F225" t="s">
-        <v>529</v>
       </c>
       <c r="G225" t="s">
         <v>529</v>
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
+        <v>529</v>
+      </c>
+      <c r="F226" t="s">
         <v>528</v>
-      </c>
-      <c r="F226" t="s">
-        <v>529</v>
       </c>
       <c r="G226" t="s">
         <v>529</v>
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
+        <v>545</v>
+      </c>
+      <c r="F227" t="s">
         <v>544</v>
-      </c>
-      <c r="F227" t="s">
-        <v>545</v>
       </c>
       <c r="G227" t="s">
         <v>545</v>
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
+        <v>545</v>
+      </c>
+      <c r="F228" t="s">
         <v>544</v>
-      </c>
-      <c r="F228" t="s">
-        <v>545</v>
       </c>
       <c r="G228" t="s">
         <v>545</v>
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
+        <v>545</v>
+      </c>
+      <c r="F229" t="s">
         <v>544</v>
-      </c>
-      <c r="F229" t="s">
-        <v>545</v>
       </c>
       <c r="G229" t="s">
         <v>545</v>
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
+        <v>553</v>
+      </c>
+      <c r="F230" t="s">
         <v>552</v>
-      </c>
-      <c r="F230" t="s">
-        <v>553</v>
       </c>
       <c r="G230" t="s">
         <v>553</v>
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
+        <v>557</v>
+      </c>
+      <c r="F231" t="s">
         <v>556</v>
-      </c>
-      <c r="F231" t="s">
-        <v>557</v>
       </c>
       <c r="G231" t="s">
         <v>557</v>
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
+        <v>561</v>
+      </c>
+      <c r="F232" t="s">
         <v>560</v>
-      </c>
-      <c r="F232" t="s">
-        <v>561</v>
       </c>
       <c r="G232" t="s">
         <v>561</v>
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
+        <v>565</v>
+      </c>
+      <c r="F233" t="s">
         <v>564</v>
-      </c>
-      <c r="F233" t="s">
-        <v>565</v>
       </c>
       <c r="G233" t="s">
         <v>565</v>
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
+        <v>569</v>
+      </c>
+      <c r="F234" t="s">
         <v>568</v>
-      </c>
-      <c r="F234" t="s">
-        <v>569</v>
       </c>
       <c r="G234" t="s">
         <v>569</v>
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
+        <v>569</v>
+      </c>
+      <c r="F235" t="s">
         <v>568</v>
-      </c>
-      <c r="F235" t="s">
-        <v>569</v>
       </c>
       <c r="G235" t="s">
         <v>569</v>

--- a/api/1/xlsx/en/SectorGroup.xlsx
+++ b/api/1/xlsx/en/SectorGroup.xlsx
@@ -31,12 +31,12 @@
     <t>codeforiati:group-name</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -52,12 +52,12 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>Secondary Education</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>Health</t>
   </si>
   <si>
+    <t>Health, General</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>Basic Health</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Basic Health</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>Non-communicable diseases (NCDs)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Non-communicable diseases (NCDs)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>Conflict, Peace &amp; Security</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflict, Peace &amp; Security</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -718,12 +718,12 @@
     <t>Energy</t>
   </si>
   <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>Energy generation, renewable sources</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Energy generation, renewable sources</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>Energy generation, non-renewable sources</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Energy generation, non-renewable sources</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>Hybrid energy plants</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Hybrid energy plants</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>Nuclear energy plants</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Nuclear energy plants</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>Energy distribution</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Energy distribution</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -1000,12 +1000,12 @@
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>Forestry</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Forestry</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>Fishing</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Fishing</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1198,12 +1198,12 @@
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>Mineral Resources &amp; Mining</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Mineral Resources &amp; Mining</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,10 +1384,10 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
-  </si>
-  <si>
-    <t>Construction</t>
   </si>
   <si>
     <t>33110</t>
@@ -2889,10 +2889,10 @@
         <v>97</v>
       </c>
       <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
         <v>96</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2912,10 +2912,10 @@
         <v>97</v>
       </c>
       <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
         <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2935,10 +2935,10 @@
         <v>97</v>
       </c>
       <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
         <v>96</v>
-      </c>
-      <c r="G38" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2958,10 +2958,10 @@
         <v>97</v>
       </c>
       <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
         <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2981,10 +2981,10 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
         <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3004,10 +3004,10 @@
         <v>109</v>
       </c>
       <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
         <v>108</v>
-      </c>
-      <c r="G41" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3027,10 +3027,10 @@
         <v>109</v>
       </c>
       <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
         <v>108</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3050,10 +3050,10 @@
         <v>109</v>
       </c>
       <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
         <v>108</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3073,10 +3073,10 @@
         <v>109</v>
       </c>
       <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
         <v>108</v>
-      </c>
-      <c r="G44" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3096,10 +3096,10 @@
         <v>109</v>
       </c>
       <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
         <v>108</v>
-      </c>
-      <c r="G45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3119,10 +3119,10 @@
         <v>109</v>
       </c>
       <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
         <v>108</v>
-      </c>
-      <c r="G46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3142,10 +3142,10 @@
         <v>109</v>
       </c>
       <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
         <v>108</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3165,10 +3165,10 @@
         <v>109</v>
       </c>
       <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
         <v>108</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3188,10 +3188,10 @@
         <v>109</v>
       </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
         <v>108</v>
-      </c>
-      <c r="G49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3211,10 +3211,10 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
         <v>108</v>
-      </c>
-      <c r="G50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3234,10 +3234,10 @@
         <v>109</v>
       </c>
       <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
         <v>108</v>
-      </c>
-      <c r="G51" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3763,10 +3763,10 @@
         <v>183</v>
       </c>
       <c r="F74" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" t="s">
         <v>182</v>
-      </c>
-      <c r="G74" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3786,10 +3786,10 @@
         <v>183</v>
       </c>
       <c r="F75" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" t="s">
         <v>182</v>
-      </c>
-      <c r="G75" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3809,10 +3809,10 @@
         <v>183</v>
       </c>
       <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
         <v>182</v>
-      </c>
-      <c r="G76" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3832,10 +3832,10 @@
         <v>183</v>
       </c>
       <c r="F77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G77" t="s">
         <v>182</v>
-      </c>
-      <c r="G77" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3855,10 +3855,10 @@
         <v>183</v>
       </c>
       <c r="F78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" t="s">
         <v>182</v>
-      </c>
-      <c r="G78" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3878,10 +3878,10 @@
         <v>183</v>
       </c>
       <c r="F79" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" t="s">
         <v>182</v>
-      </c>
-      <c r="G79" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3901,10 +3901,10 @@
         <v>183</v>
       </c>
       <c r="F80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s">
         <v>182</v>
-      </c>
-      <c r="G80" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3924,10 +3924,10 @@
         <v>183</v>
       </c>
       <c r="F81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" t="s">
         <v>182</v>
-      </c>
-      <c r="G81" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3947,10 +3947,10 @@
         <v>183</v>
       </c>
       <c r="F82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" t="s">
         <v>182</v>
-      </c>
-      <c r="G82" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3970,10 +3970,10 @@
         <v>183</v>
       </c>
       <c r="F83" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" t="s">
         <v>182</v>
-      </c>
-      <c r="G83" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3993,10 +3993,10 @@
         <v>183</v>
       </c>
       <c r="F84" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" t="s">
         <v>182</v>
-      </c>
-      <c r="G84" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4016,10 +4016,10 @@
         <v>207</v>
       </c>
       <c r="F85" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" t="s">
         <v>206</v>
-      </c>
-      <c r="G85" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4039,10 +4039,10 @@
         <v>207</v>
       </c>
       <c r="F86" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" t="s">
         <v>206</v>
-      </c>
-      <c r="G86" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4062,10 +4062,10 @@
         <v>207</v>
       </c>
       <c r="F87" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" t="s">
         <v>206</v>
-      </c>
-      <c r="G87" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4085,10 +4085,10 @@
         <v>207</v>
       </c>
       <c r="F88" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" t="s">
         <v>206</v>
-      </c>
-      <c r="G88" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4108,10 +4108,10 @@
         <v>207</v>
       </c>
       <c r="F89" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" t="s">
         <v>206</v>
-      </c>
-      <c r="G89" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4131,10 +4131,10 @@
         <v>207</v>
       </c>
       <c r="F90" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" t="s">
         <v>206</v>
-      </c>
-      <c r="G90" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4154,10 +4154,10 @@
         <v>207</v>
       </c>
       <c r="F91" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" t="s">
         <v>206</v>
-      </c>
-      <c r="G91" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4177,10 +4177,10 @@
         <v>223</v>
       </c>
       <c r="F92" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" t="s">
         <v>222</v>
-      </c>
-      <c r="G92" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4200,10 +4200,10 @@
         <v>223</v>
       </c>
       <c r="F93" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" t="s">
         <v>222</v>
-      </c>
-      <c r="G93" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4223,10 +4223,10 @@
         <v>223</v>
       </c>
       <c r="F94" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" t="s">
         <v>222</v>
-      </c>
-      <c r="G94" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4246,10 +4246,10 @@
         <v>223</v>
       </c>
       <c r="F95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G95" t="s">
         <v>222</v>
-      </c>
-      <c r="G95" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4913,10 +4913,10 @@
         <v>303</v>
       </c>
       <c r="F124" t="s">
+        <v>303</v>
+      </c>
+      <c r="G124" t="s">
         <v>302</v>
-      </c>
-      <c r="G124" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4936,10 +4936,10 @@
         <v>303</v>
       </c>
       <c r="F125" t="s">
+        <v>303</v>
+      </c>
+      <c r="G125" t="s">
         <v>302</v>
-      </c>
-      <c r="G125" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4959,10 +4959,10 @@
         <v>303</v>
       </c>
       <c r="F126" t="s">
+        <v>303</v>
+      </c>
+      <c r="G126" t="s">
         <v>302</v>
-      </c>
-      <c r="G126" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4982,10 +4982,10 @@
         <v>303</v>
       </c>
       <c r="F127" t="s">
+        <v>303</v>
+      </c>
+      <c r="G127" t="s">
         <v>302</v>
-      </c>
-      <c r="G127" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5005,10 +5005,10 @@
         <v>303</v>
       </c>
       <c r="F128" t="s">
+        <v>303</v>
+      </c>
+      <c r="G128" t="s">
         <v>302</v>
-      </c>
-      <c r="G128" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5028,10 +5028,10 @@
         <v>303</v>
       </c>
       <c r="F129" t="s">
+        <v>303</v>
+      </c>
+      <c r="G129" t="s">
         <v>302</v>
-      </c>
-      <c r="G129" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5051,10 +5051,10 @@
         <v>317</v>
       </c>
       <c r="F130" t="s">
+        <v>317</v>
+      </c>
+      <c r="G130" t="s">
         <v>316</v>
-      </c>
-      <c r="G130" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5074,10 +5074,10 @@
         <v>317</v>
       </c>
       <c r="F131" t="s">
+        <v>317</v>
+      </c>
+      <c r="G131" t="s">
         <v>316</v>
-      </c>
-      <c r="G131" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5097,10 +5097,10 @@
         <v>317</v>
       </c>
       <c r="F132" t="s">
+        <v>317</v>
+      </c>
+      <c r="G132" t="s">
         <v>316</v>
-      </c>
-      <c r="G132" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5120,10 +5120,10 @@
         <v>317</v>
       </c>
       <c r="F133" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133" t="s">
         <v>316</v>
-      </c>
-      <c r="G133" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6500,10 +6500,10 @@
         <v>461</v>
       </c>
       <c r="F193" t="s">
+        <v>461</v>
+      </c>
+      <c r="G193" t="s">
         <v>460</v>
-      </c>
-      <c r="G193" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6523,10 +6523,10 @@
         <v>461</v>
       </c>
       <c r="F194" t="s">
+        <v>461</v>
+      </c>
+      <c r="G194" t="s">
         <v>460</v>
-      </c>
-      <c r="G194" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6546,10 +6546,10 @@
         <v>461</v>
       </c>
       <c r="F195" t="s">
+        <v>461</v>
+      </c>
+      <c r="G195" t="s">
         <v>460</v>
-      </c>
-      <c r="G195" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6569,10 +6569,10 @@
         <v>461</v>
       </c>
       <c r="F196" t="s">
+        <v>461</v>
+      </c>
+      <c r="G196" t="s">
         <v>460</v>
-      </c>
-      <c r="G196" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6592,10 +6592,10 @@
         <v>461</v>
       </c>
       <c r="F197" t="s">
+        <v>461</v>
+      </c>
+      <c r="G197" t="s">
         <v>460</v>
-      </c>
-      <c r="G197" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6615,10 +6615,10 @@
         <v>461</v>
       </c>
       <c r="F198" t="s">
+        <v>461</v>
+      </c>
+      <c r="G198" t="s">
         <v>460</v>
-      </c>
-      <c r="G198" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6638,10 +6638,10 @@
         <v>475</v>
       </c>
       <c r="F199" t="s">
+        <v>475</v>
+      </c>
+      <c r="G199" t="s">
         <v>474</v>
-      </c>
-      <c r="G199" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6661,10 +6661,10 @@
         <v>479</v>
       </c>
       <c r="F200" t="s">
+        <v>479</v>
+      </c>
+      <c r="G200" t="s">
         <v>478</v>
-      </c>
-      <c r="G200" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6684,10 +6684,10 @@
         <v>479</v>
       </c>
       <c r="F201" t="s">
+        <v>479</v>
+      </c>
+      <c r="G201" t="s">
         <v>478</v>
-      </c>
-      <c r="G201" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6707,10 +6707,10 @@
         <v>479</v>
       </c>
       <c r="F202" t="s">
+        <v>479</v>
+      </c>
+      <c r="G202" t="s">
         <v>478</v>
-      </c>
-      <c r="G202" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6730,10 +6730,10 @@
         <v>479</v>
       </c>
       <c r="F203" t="s">
+        <v>479</v>
+      </c>
+      <c r="G203" t="s">
         <v>478</v>
-      </c>
-      <c r="G203" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6753,10 +6753,10 @@
         <v>479</v>
       </c>
       <c r="F204" t="s">
+        <v>479</v>
+      </c>
+      <c r="G204" t="s">
         <v>478</v>
-      </c>
-      <c r="G204" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6776,10 +6776,10 @@
         <v>479</v>
       </c>
       <c r="F205" t="s">
+        <v>479</v>
+      </c>
+      <c r="G205" t="s">
         <v>478</v>
-      </c>
-      <c r="G205" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6799,10 +6799,10 @@
         <v>493</v>
       </c>
       <c r="F206" t="s">
+        <v>493</v>
+      </c>
+      <c r="G206" t="s">
         <v>492</v>
-      </c>
-      <c r="G206" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6822,10 +6822,10 @@
         <v>493</v>
       </c>
       <c r="F207" t="s">
+        <v>493</v>
+      </c>
+      <c r="G207" t="s">
         <v>492</v>
-      </c>
-      <c r="G207" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6845,10 +6845,10 @@
         <v>493</v>
       </c>
       <c r="F208" t="s">
+        <v>493</v>
+      </c>
+      <c r="G208" t="s">
         <v>492</v>
-      </c>
-      <c r="G208" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6868,10 +6868,10 @@
         <v>493</v>
       </c>
       <c r="F209" t="s">
+        <v>493</v>
+      </c>
+      <c r="G209" t="s">
         <v>492</v>
-      </c>
-      <c r="G209" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6891,10 +6891,10 @@
         <v>493</v>
       </c>
       <c r="F210" t="s">
+        <v>493</v>
+      </c>
+      <c r="G210" t="s">
         <v>492</v>
-      </c>
-      <c r="G210" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6914,10 +6914,10 @@
         <v>493</v>
       </c>
       <c r="F211" t="s">
+        <v>493</v>
+      </c>
+      <c r="G211" t="s">
         <v>492</v>
-      </c>
-      <c r="G211" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6937,10 +6937,10 @@
         <v>493</v>
       </c>
       <c r="F212" t="s">
+        <v>493</v>
+      </c>
+      <c r="G212" t="s">
         <v>492</v>
-      </c>
-      <c r="G212" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6960,10 +6960,10 @@
         <v>493</v>
       </c>
       <c r="F213" t="s">
+        <v>493</v>
+      </c>
+      <c r="G213" t="s">
         <v>492</v>
-      </c>
-      <c r="G213" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6983,10 +6983,10 @@
         <v>493</v>
       </c>
       <c r="F214" t="s">
+        <v>493</v>
+      </c>
+      <c r="G214" t="s">
         <v>492</v>
-      </c>
-      <c r="G214" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7006,10 +7006,10 @@
         <v>493</v>
       </c>
       <c r="F215" t="s">
+        <v>493</v>
+      </c>
+      <c r="G215" t="s">
         <v>492</v>
-      </c>
-      <c r="G215" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7029,10 +7029,10 @@
         <v>515</v>
       </c>
       <c r="F216" t="s">
+        <v>515</v>
+      </c>
+      <c r="G216" t="s">
         <v>514</v>
-      </c>
-      <c r="G216" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7052,10 +7052,10 @@
         <v>519</v>
       </c>
       <c r="F217" t="s">
+        <v>519</v>
+      </c>
+      <c r="G217" t="s">
         <v>518</v>
-      </c>
-      <c r="G217" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7075,10 +7075,10 @@
         <v>523</v>
       </c>
       <c r="F218" t="s">
+        <v>523</v>
+      </c>
+      <c r="G218" t="s">
         <v>522</v>
-      </c>
-      <c r="G218" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7098,10 +7098,10 @@
         <v>523</v>
       </c>
       <c r="F219" t="s">
+        <v>523</v>
+      </c>
+      <c r="G219" t="s">
         <v>522</v>
-      </c>
-      <c r="G219" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7121,10 +7121,10 @@
         <v>529</v>
       </c>
       <c r="F220" t="s">
+        <v>529</v>
+      </c>
+      <c r="G220" t="s">
         <v>528</v>
-      </c>
-      <c r="G220" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7144,10 +7144,10 @@
         <v>529</v>
       </c>
       <c r="F221" t="s">
+        <v>529</v>
+      </c>
+      <c r="G221" t="s">
         <v>528</v>
-      </c>
-      <c r="G221" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7167,10 +7167,10 @@
         <v>529</v>
       </c>
       <c r="F222" t="s">
+        <v>529</v>
+      </c>
+      <c r="G222" t="s">
         <v>528</v>
-      </c>
-      <c r="G222" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7190,10 +7190,10 @@
         <v>529</v>
       </c>
       <c r="F223" t="s">
+        <v>529</v>
+      </c>
+      <c r="G223" t="s">
         <v>528</v>
-      </c>
-      <c r="G223" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7213,10 +7213,10 @@
         <v>529</v>
       </c>
       <c r="F224" t="s">
+        <v>529</v>
+      </c>
+      <c r="G224" t="s">
         <v>528</v>
-      </c>
-      <c r="G224" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7236,10 +7236,10 @@
         <v>529</v>
       </c>
       <c r="F225" t="s">
+        <v>529</v>
+      </c>
+      <c r="G225" t="s">
         <v>528</v>
-      </c>
-      <c r="G225" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7259,10 +7259,10 @@
         <v>529</v>
       </c>
       <c r="F226" t="s">
+        <v>529</v>
+      </c>
+      <c r="G226" t="s">
         <v>528</v>
-      </c>
-      <c r="G226" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7282,10 +7282,10 @@
         <v>545</v>
       </c>
       <c r="F227" t="s">
+        <v>545</v>
+      </c>
+      <c r="G227" t="s">
         <v>544</v>
-      </c>
-      <c r="G227" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7305,10 +7305,10 @@
         <v>545</v>
       </c>
       <c r="F228" t="s">
+        <v>545</v>
+      </c>
+      <c r="G228" t="s">
         <v>544</v>
-      </c>
-      <c r="G228" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7328,10 +7328,10 @@
         <v>545</v>
       </c>
       <c r="F229" t="s">
+        <v>545</v>
+      </c>
+      <c r="G229" t="s">
         <v>544</v>
-      </c>
-      <c r="G229" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7351,10 +7351,10 @@
         <v>553</v>
       </c>
       <c r="F230" t="s">
+        <v>553</v>
+      </c>
+      <c r="G230" t="s">
         <v>552</v>
-      </c>
-      <c r="G230" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7374,10 +7374,10 @@
         <v>557</v>
       </c>
       <c r="F231" t="s">
+        <v>557</v>
+      </c>
+      <c r="G231" t="s">
         <v>556</v>
-      </c>
-      <c r="G231" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7397,10 +7397,10 @@
         <v>561</v>
       </c>
       <c r="F232" t="s">
+        <v>561</v>
+      </c>
+      <c r="G232" t="s">
         <v>560</v>
-      </c>
-      <c r="G232" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7420,10 +7420,10 @@
         <v>565</v>
       </c>
       <c r="F233" t="s">
+        <v>565</v>
+      </c>
+      <c r="G233" t="s">
         <v>564</v>
-      </c>
-      <c r="G233" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7443,10 +7443,10 @@
         <v>569</v>
       </c>
       <c r="F234" t="s">
+        <v>569</v>
+      </c>
+      <c r="G234" t="s">
         <v>568</v>
-      </c>
-      <c r="G234" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7466,10 +7466,10 @@
         <v>569</v>
       </c>
       <c r="F235" t="s">
+        <v>569</v>
+      </c>
+      <c r="G235" t="s">
         <v>568</v>
-      </c>
-      <c r="G235" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
